--- a/MindManager3/Sec01-01-01.xlsx
+++ b/MindManager3/Sec01-01-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o334-my.sharepoint.com/personal/mskn55_iri-net_tokyo/Documents/git_repository_Duo/Sharing_Knowledge3/MindManager3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_B7879F88AA11EF8E6360C9D11BFF80597574BC88" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{54D7C0ED-8C1F-4510-A4DC-678C520A6439}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_B7879F88AA11EF8E6360C9D11BFF80597574BC88" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CF9C3408-13C3-4BB1-AD2C-F39CE728968C}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="1900" windowWidth="17620" windowHeight="10090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="650" windowWidth="17620" windowHeight="10090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sec01-01-01_「中小企業向けサイバーセキュリティ対策" sheetId="1" r:id="rId1"/>
@@ -1119,12 +1119,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1174,6 +1171,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3607,158 +3610,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:P292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.26953125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="10.26953125" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="16384" width="18.26953125" style="1"/>
+    <col min="1" max="16384" width="10.26953125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.5" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16" s="19" customFormat="1" ht="20.5" customHeight="1">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="M2" s="1">
         <v>3</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="17" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="19.5" customHeight="1">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="16.5" customHeight="1">
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="16.5" customHeight="1">
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="16.5" customHeight="1">
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="16.5" customHeight="1">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="16.5" customHeight="1">
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" customHeight="1">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="19.5" customHeight="1">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="16.5" customHeight="1">
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P11" s="18" t="s">
+      <c r="P11" s="17" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="16.5" customHeight="1">
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="16.5" customHeight="1">
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="P13" s="18" t="s">
+      <c r="P13" s="17" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="16.5" customHeight="1">
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="P14" s="18" t="s">
+      <c r="P14" s="17" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="16.5" customHeight="1">
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="P15" s="18" t="s">
+      <c r="P15" s="17" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="19.5" customHeight="1">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
       <c r="M16" s="1">
@@ -3766,43 +3772,43 @@
       </c>
     </row>
     <row r="17" spans="3:15" ht="16.5" customHeight="1">
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="3:15" ht="16.5" customHeight="1">
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="3:15" ht="16.5" customHeight="1">
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="3:15" ht="16.5" customHeight="1">
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="21" spans="3:15" ht="16.5" customHeight="1">
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="3:15" ht="16.5" customHeight="1">
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="23" spans="3:15" ht="16.5" customHeight="1">
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>30</v>
       </c>
       <c r="M23" s="1">
         <v>4</v>
       </c>
-      <c r="N23" s="18" t="s">
+      <c r="N23" s="17" t="s">
         <v>62</v>
       </c>
       <c r="O23" s="1" t="s">
@@ -3810,13 +3816,13 @@
       </c>
     </row>
     <row r="24" spans="3:15" ht="16.5" customHeight="1">
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M24" s="1">
         <v>4</v>
       </c>
-      <c r="N24" s="18" t="s">
+      <c r="N24" s="17" t="s">
         <v>63</v>
       </c>
       <c r="O24" s="1" t="s">
@@ -3824,7 +3830,7 @@
       </c>
     </row>
     <row r="25" spans="3:15" ht="16.5" customHeight="1">
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>32</v>
       </c>
       <c r="M25" s="1">
@@ -3832,7 +3838,7 @@
       </c>
     </row>
     <row r="26" spans="3:15" ht="16.5" customHeight="1">
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>33</v>
       </c>
       <c r="M26" s="1">
@@ -3840,13 +3846,13 @@
       </c>
     </row>
     <row r="27" spans="3:15" ht="16.5" customHeight="1">
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>34</v>
       </c>
       <c r="M27" s="1">
         <v>4</v>
       </c>
-      <c r="N27" s="18" t="s">
+      <c r="N27" s="17" t="s">
         <v>34</v>
       </c>
       <c r="O27" s="1" t="s">
@@ -3854,7 +3860,7 @@
       </c>
     </row>
     <row r="28" spans="3:15" ht="16.5" customHeight="1">
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>35</v>
       </c>
       <c r="M28" s="1">
@@ -3862,7 +3868,7 @@
       </c>
     </row>
     <row r="29" spans="3:15" ht="16.5" customHeight="1">
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>36</v>
       </c>
       <c r="M29" s="1">
@@ -3870,27 +3876,27 @@
       </c>
     </row>
     <row r="30" spans="3:15" ht="16.5" customHeight="1">
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="3:15" ht="16.5" customHeight="1">
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="32" spans="3:15" ht="16.5" customHeight="1">
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="19.5" customHeight="1">
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="34" spans="2:16" ht="16.5" customHeight="1">
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="11" t="s">
         <v>38</v>
       </c>
       <c r="M34" s="1">
@@ -3898,27 +3904,27 @@
       </c>
     </row>
     <row r="35" spans="2:16" ht="16.5" customHeight="1">
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="36" spans="2:16" ht="16.5" customHeight="1">
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="37" spans="2:16" ht="16.5" customHeight="1">
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="38" spans="2:16" ht="16.5" customHeight="1">
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="39" spans="2:16" ht="16.5" customHeight="1">
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="11" t="s">
         <v>39</v>
       </c>
       <c r="M39" s="1">
@@ -3926,22 +3932,22 @@
       </c>
     </row>
     <row r="40" spans="2:16" ht="16.5" customHeight="1">
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="41" spans="2:16" ht="16.5" customHeight="1">
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="42" spans="2:16" ht="16.5" customHeight="1">
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="43" spans="2:16" ht="16.5" customHeight="1">
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="10" t="s">
         <v>55</v>
       </c>
       <c r="M43" s="1">
@@ -3949,35 +3955,35 @@
       </c>
     </row>
     <row r="44" spans="2:16" ht="16.5" customHeight="1">
-      <c r="E44" s="13" t="s">
+      <c r="E44" s="12" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="45" spans="2:16" ht="16.5" customHeight="1">
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="8" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="46" spans="2:16" ht="16.5" customHeight="1">
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="P46" s="18" t="s">
+      <c r="P46" s="17" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="47" spans="2:16" ht="16.5" customHeight="1">
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="8" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="48" spans="2:16" ht="16.5" customHeight="1">
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="49" spans="3:16" ht="16.5" customHeight="1">
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="10" t="s">
         <v>56</v>
       </c>
       <c r="M49" s="1">
@@ -3985,12 +3991,12 @@
       </c>
     </row>
     <row r="50" spans="3:16" ht="16.5" customHeight="1">
-      <c r="E50" s="13" t="s">
+      <c r="E50" s="12" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="51" spans="3:16" ht="16.5" customHeight="1">
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="11" t="s">
         <v>40</v>
       </c>
       <c r="M51" s="1">
@@ -3998,22 +4004,22 @@
       </c>
     </row>
     <row r="52" spans="3:16" ht="16.5" customHeight="1">
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="13" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="53" spans="3:16" ht="16.5" customHeight="1">
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="54" spans="3:16" ht="16.5" customHeight="1">
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="55" spans="3:16" ht="16.5" customHeight="1">
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="11" t="s">
         <v>41</v>
       </c>
       <c r="M55" s="1">
@@ -4021,44 +4027,44 @@
       </c>
     </row>
     <row r="56" spans="3:16" ht="16.5" customHeight="1">
-      <c r="D56" s="14" t="s">
+      <c r="D56" s="13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="57" spans="3:16" ht="14.5" customHeight="1">
-      <c r="D57" s="15" t="s">
+      <c r="D57" s="14" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="58" spans="3:16" ht="16.5" customHeight="1">
-      <c r="E58" s="9" t="s">
+      <c r="E58" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="P58" s="18" t="s">
+      <c r="P58" s="17" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="59" spans="3:16" ht="16.5" customHeight="1">
-      <c r="E59" s="9" t="s">
+      <c r="E59" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="P59" s="18" t="s">
+      <c r="P59" s="17" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="60" spans="3:16" ht="16.5" customHeight="1">
-      <c r="F60" s="9" t="s">
+      <c r="F60" s="8" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="61" spans="3:16" ht="16.5" customHeight="1">
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="10" t="s">
         <v>62</v>
       </c>
       <c r="M61" s="1">
         <v>5</v>
       </c>
-      <c r="N61" s="18" t="s">
+      <c r="N61" s="17" t="s">
         <v>30</v>
       </c>
       <c r="O61" s="1" t="s">
@@ -4066,121 +4072,121 @@
       </c>
     </row>
     <row r="62" spans="3:16" ht="16.5" customHeight="1">
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="P62" s="18" t="s">
+      <c r="P62" s="17" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="63" spans="3:16" ht="16.5" customHeight="1">
-      <c r="E63" s="13" t="s">
+      <c r="E63" s="12" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="64" spans="3:16" ht="16.5" customHeight="1">
-      <c r="E64" s="9" t="s">
+      <c r="E64" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="65" spans="5:16" ht="16.5" customHeight="1">
-      <c r="F65" s="9" t="s">
+      <c r="F65" s="8" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="66" spans="5:16" ht="16.5" customHeight="1">
-      <c r="F66" s="9" t="s">
+      <c r="F66" s="8" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="67" spans="5:16" ht="16.5" customHeight="1">
-      <c r="F67" s="9" t="s">
+      <c r="F67" s="8" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="68" spans="5:16" ht="16.5" customHeight="1">
-      <c r="E68" s="9" t="s">
+      <c r="E68" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="P68" s="18" t="s">
+      <c r="P68" s="17" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="69" spans="5:16" ht="16.5" customHeight="1">
-      <c r="F69" s="9" t="s">
+      <c r="F69" s="8" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="70" spans="5:16" ht="16.5" customHeight="1">
-      <c r="G70" s="9" t="s">
+      <c r="G70" s="8" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="71" spans="5:16" ht="16.5" customHeight="1">
-      <c r="G71" s="9" t="s">
+      <c r="G71" s="8" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="72" spans="5:16" ht="16.5" customHeight="1">
-      <c r="G72" s="9" t="s">
+      <c r="G72" s="8" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="73" spans="5:16" ht="16.5" customHeight="1">
-      <c r="F73" s="9" t="s">
+      <c r="F73" s="8" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="74" spans="5:16" ht="16.5" customHeight="1">
-      <c r="G74" s="9" t="s">
+      <c r="G74" s="8" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="75" spans="5:16" ht="16.5" customHeight="1">
-      <c r="G75" s="9" t="s">
+      <c r="G75" s="8" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="76" spans="5:16" ht="16.5" customHeight="1">
-      <c r="F76" s="9" t="s">
+      <c r="F76" s="8" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="77" spans="5:16" ht="16.5" customHeight="1">
-      <c r="G77" s="9" t="s">
+      <c r="G77" s="8" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="78" spans="5:16" ht="16.5" customHeight="1">
-      <c r="G78" s="9" t="s">
+      <c r="G78" s="8" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="79" spans="5:16" ht="16.5" customHeight="1">
-      <c r="F79" s="9" t="s">
+      <c r="F79" s="8" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="80" spans="5:16" ht="16.5" customHeight="1">
-      <c r="G80" s="9" t="s">
+      <c r="G80" s="8" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="81" spans="4:15" ht="16.5" customHeight="1">
-      <c r="E81" s="9" t="s">
+      <c r="E81" s="8" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="82" spans="4:15" ht="16.5" customHeight="1">
-      <c r="F82" s="9" t="s">
+      <c r="F82" s="8" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="83" spans="4:15" ht="16.5" customHeight="1">
-      <c r="D83" s="11" t="s">
+      <c r="D83" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="N83" s="18" t="s">
+      <c r="N83" s="17" t="s">
         <v>31</v>
       </c>
       <c r="O83" s="1" t="s">
@@ -4188,28 +4194,28 @@
       </c>
     </row>
     <row r="84" spans="4:15" ht="16.5" customHeight="1">
-      <c r="E84" s="14" t="s">
+      <c r="E84" s="13" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="85" spans="4:15" ht="16.5" customHeight="1">
-      <c r="E85" s="9" t="s">
+      <c r="E85" s="8" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="86" spans="4:15" ht="16.5" customHeight="1">
-      <c r="E86" s="13" t="s">
+      <c r="E86" s="12" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="87" spans="4:15" ht="16.5" customHeight="1">
-      <c r="D87" s="10" t="s">
+      <c r="D87" s="9" t="s">
         <v>34</v>
       </c>
       <c r="M87" s="1">
         <v>4</v>
       </c>
-      <c r="N87" s="18" t="s">
+      <c r="N87" s="17" t="s">
         <v>34</v>
       </c>
       <c r="O87" s="1" t="s">
@@ -4217,17 +4223,17 @@
       </c>
     </row>
     <row r="88" spans="4:15" ht="16.5" customHeight="1">
-      <c r="E88" s="9" t="s">
+      <c r="E88" s="8" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="89" spans="4:15" ht="16.5" customHeight="1">
-      <c r="E89" s="13" t="s">
+      <c r="E89" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="90" spans="4:15" ht="16.5" customHeight="1">
-      <c r="E90" s="11" t="s">
+      <c r="E90" s="10" t="s">
         <v>97</v>
       </c>
       <c r="M90" s="1">
@@ -4235,202 +4241,202 @@
       </c>
     </row>
     <row r="91" spans="4:15" ht="16.5" customHeight="1">
-      <c r="F91" s="11" t="s">
+      <c r="F91" s="10" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="92" spans="4:15" ht="16.5" customHeight="1">
-      <c r="F92" s="9" t="s">
+      <c r="F92" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="93" spans="4:15" ht="16.5" customHeight="1">
-      <c r="G93" s="14" t="s">
+      <c r="G93" s="13" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="94" spans="4:15" ht="16.5" customHeight="1">
-      <c r="G94" s="9" t="s">
+      <c r="G94" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="95" spans="4:15" ht="16.5" customHeight="1">
-      <c r="G95" s="9" t="s">
+      <c r="G95" s="8" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="96" spans="4:15" ht="16.5" customHeight="1">
-      <c r="G96" s="9" t="s">
+      <c r="G96" s="8" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="97" spans="6:9" ht="16.5" customHeight="1">
-      <c r="G97" s="9" t="s">
+      <c r="G97" s="8" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="98" spans="6:9" ht="16.5" customHeight="1">
-      <c r="H98" s="9" t="s">
+      <c r="H98" s="8" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="99" spans="6:9" ht="16.5" customHeight="1">
-      <c r="H99" s="9" t="s">
+      <c r="H99" s="8" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="100" spans="6:9" ht="16.5" customHeight="1">
-      <c r="H100" s="9" t="s">
+      <c r="H100" s="8" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="101" spans="6:9" ht="16.5" customHeight="1">
-      <c r="H101" s="9" t="s">
+      <c r="H101" s="8" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="102" spans="6:9" ht="16.5" customHeight="1">
-      <c r="H102" s="9" t="s">
+      <c r="H102" s="8" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="103" spans="6:9" ht="16.5" customHeight="1">
-      <c r="H103" s="9" t="s">
+      <c r="H103" s="8" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="104" spans="6:9" ht="16.5" customHeight="1">
-      <c r="H104" s="9" t="s">
+      <c r="H104" s="8" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="105" spans="6:9" ht="16.5" customHeight="1">
-      <c r="H105" s="9" t="s">
+      <c r="H105" s="8" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="106" spans="6:9" ht="16.5" customHeight="1">
-      <c r="H106" s="9" t="s">
+      <c r="H106" s="8" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="107" spans="6:9" ht="16.5" customHeight="1">
-      <c r="I107" s="9" t="s">
+      <c r="I107" s="8" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="108" spans="6:9" ht="16.5" customHeight="1">
-      <c r="F108" s="11" t="s">
+      <c r="F108" s="10" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="109" spans="6:9" ht="16.5" customHeight="1">
-      <c r="G109" s="9" t="s">
+      <c r="G109" s="8" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="110" spans="6:9" ht="16.5" customHeight="1">
-      <c r="G110" s="11" t="s">
+      <c r="G110" s="10" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="111" spans="6:9" ht="16.5" customHeight="1">
-      <c r="H111" s="9" t="s">
+      <c r="H111" s="8" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="112" spans="6:9" ht="16.5" customHeight="1">
-      <c r="H112" s="9" t="s">
+      <c r="H112" s="8" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="113" spans="6:8" ht="16.5" customHeight="1">
-      <c r="F113" s="9" t="s">
+      <c r="F113" s="8" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="114" spans="6:8" ht="16.5" customHeight="1">
-      <c r="G114" s="14" t="s">
+      <c r="G114" s="13" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="115" spans="6:8" ht="16.5" customHeight="1">
-      <c r="F115" s="9" t="s">
+      <c r="F115" s="8" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="116" spans="6:8" ht="16.5" customHeight="1">
-      <c r="G116" s="9" t="s">
+      <c r="G116" s="8" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="117" spans="6:8" ht="16.5" customHeight="1">
-      <c r="G117" s="14" t="s">
+      <c r="G117" s="13" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="118" spans="6:8" ht="16.5" customHeight="1">
-      <c r="F118" s="9" t="s">
+      <c r="F118" s="8" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="119" spans="6:8" ht="16.5" customHeight="1">
-      <c r="F119" s="9" t="s">
+      <c r="F119" s="8" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="120" spans="6:8" ht="16.5" customHeight="1">
-      <c r="F120" s="9" t="s">
+      <c r="F120" s="8" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="121" spans="6:8" ht="16.5" customHeight="1">
-      <c r="F121" s="11" t="s">
+      <c r="F121" s="10" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="122" spans="6:8" ht="16.5" customHeight="1">
-      <c r="G122" s="14" t="s">
+      <c r="G122" s="13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="123" spans="6:8" ht="16.5" customHeight="1">
-      <c r="G123" s="9" t="s">
+      <c r="G123" s="8" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="124" spans="6:8" ht="16.5" customHeight="1">
-      <c r="G124" s="9" t="s">
+      <c r="G124" s="8" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="125" spans="6:8" ht="16.5" customHeight="1">
-      <c r="H125" s="9" t="s">
+      <c r="H125" s="8" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="126" spans="6:8" ht="16.5" customHeight="1">
-      <c r="G126" s="9" t="s">
+      <c r="G126" s="8" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="127" spans="6:8" ht="16.5" customHeight="1">
-      <c r="H127" s="9" t="s">
+      <c r="H127" s="8" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="128" spans="6:8" ht="16.5" customHeight="1">
-      <c r="G128" s="9" t="s">
+      <c r="G128" s="8" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="129" spans="4:13" ht="16.5" customHeight="1">
-      <c r="H129" s="9" t="s">
+      <c r="H129" s="8" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="130" spans="4:13" ht="16.5" customHeight="1">
-      <c r="D130" s="11" t="s">
+      <c r="D130" s="10" t="s">
         <v>64</v>
       </c>
       <c r="M130" s="1">
@@ -4438,17 +4444,17 @@
       </c>
     </row>
     <row r="131" spans="4:13" ht="16.5" customHeight="1">
-      <c r="E131" s="14" t="s">
+      <c r="E131" s="13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="132" spans="4:13" ht="16.5" customHeight="1">
-      <c r="E132" s="13" t="s">
+      <c r="E132" s="12" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="133" spans="4:13" ht="16.5" customHeight="1">
-      <c r="E133" s="11" t="s">
+      <c r="E133" s="10" t="s">
         <v>99</v>
       </c>
       <c r="M133" s="1">
@@ -4456,57 +4462,57 @@
       </c>
     </row>
     <row r="134" spans="4:13" ht="16.5" customHeight="1">
-      <c r="F134" s="14" t="s">
+      <c r="F134" s="13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="135" spans="4:13" ht="16.5" customHeight="1">
-      <c r="F135" s="9" t="s">
+      <c r="F135" s="8" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="136" spans="4:13" ht="16.5" customHeight="1">
-      <c r="F136" s="9" t="s">
+      <c r="F136" s="8" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="137" spans="4:13" ht="16.5" customHeight="1">
-      <c r="G137" s="9" t="s">
+      <c r="G137" s="8" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="138" spans="4:13" ht="16.5" customHeight="1">
-      <c r="G138" s="11" t="s">
+      <c r="G138" s="10" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="139" spans="4:13" ht="16.5" customHeight="1">
-      <c r="G139" s="9" t="s">
+      <c r="G139" s="8" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="140" spans="4:13" ht="16.5" customHeight="1">
-      <c r="G140" s="9" t="s">
+      <c r="G140" s="8" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="141" spans="4:13" ht="16.5" customHeight="1">
-      <c r="G141" s="9" t="s">
+      <c r="G141" s="8" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="142" spans="4:13" ht="16.5" customHeight="1">
-      <c r="G142" s="9" t="s">
+      <c r="G142" s="8" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="143" spans="4:13" ht="16.5" customHeight="1">
-      <c r="F143" s="9" t="s">
+      <c r="F143" s="8" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="144" spans="4:13" ht="16.5" customHeight="1">
-      <c r="E144" s="9" t="s">
+      <c r="E144" s="8" t="s">
         <v>100</v>
       </c>
       <c r="M144" s="1">
@@ -4514,127 +4520,127 @@
       </c>
     </row>
     <row r="145" spans="5:7" ht="16.5" customHeight="1">
-      <c r="F145" s="9" t="s">
+      <c r="F145" s="8" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="146" spans="5:7" ht="16.5" customHeight="1">
-      <c r="G146" s="9" t="s">
+      <c r="G146" s="8" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="147" spans="5:7" ht="16.5" customHeight="1">
-      <c r="F147" s="9" t="s">
+      <c r="F147" s="8" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="148" spans="5:7" ht="16.5" customHeight="1">
-      <c r="G148" s="9" t="s">
+      <c r="G148" s="8" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="149" spans="5:7" ht="16.5" customHeight="1">
-      <c r="G149" s="9" t="s">
+      <c r="G149" s="8" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="150" spans="5:7" ht="16.5" customHeight="1">
-      <c r="G150" s="9" t="s">
+      <c r="G150" s="8" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="151" spans="5:7" ht="16.5" customHeight="1">
-      <c r="G151" s="9" t="s">
+      <c r="G151" s="8" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="152" spans="5:7" ht="16.5" customHeight="1">
-      <c r="F152" s="9" t="s">
+      <c r="F152" s="8" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="153" spans="5:7" ht="16.5" customHeight="1">
-      <c r="G153" s="9" t="s">
+      <c r="G153" s="8" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="154" spans="5:7" ht="16.5" customHeight="1">
-      <c r="G154" s="9" t="s">
+      <c r="G154" s="8" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="155" spans="5:7" ht="16.5" customHeight="1">
-      <c r="G155" s="9" t="s">
+      <c r="G155" s="8" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="156" spans="5:7" ht="16.5" customHeight="1">
-      <c r="E156" s="11" t="s">
+      <c r="E156" s="10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="157" spans="5:7" ht="16.5" customHeight="1">
-      <c r="F157" s="14" t="s">
+      <c r="F157" s="13" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="158" spans="5:7" ht="16.5" customHeight="1">
-      <c r="F158" s="9" t="s">
+      <c r="F158" s="8" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="159" spans="5:7" ht="16.5" customHeight="1">
-      <c r="G159" s="9" t="s">
+      <c r="G159" s="8" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="160" spans="5:7" ht="16.5" customHeight="1">
-      <c r="G160" s="9" t="s">
+      <c r="G160" s="8" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="161" spans="4:13" ht="16.5" customHeight="1">
-      <c r="G161" s="9" t="s">
+      <c r="G161" s="8" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="162" spans="4:13" ht="16.5" customHeight="1">
-      <c r="G162" s="9" t="s">
+      <c r="G162" s="8" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="163" spans="4:13" ht="16.5" customHeight="1">
-      <c r="H163" s="9" t="s">
+      <c r="H163" s="8" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="164" spans="4:13" ht="16.5" customHeight="1">
-      <c r="H164" s="9" t="s">
+      <c r="H164" s="8" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="165" spans="4:13" ht="16.5" customHeight="1">
-      <c r="H165" s="9" t="s">
+      <c r="H165" s="8" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="166" spans="4:13" ht="16.5" customHeight="1">
-      <c r="F166" s="9" t="s">
+      <c r="F166" s="8" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="167" spans="4:13" ht="16.5" customHeight="1">
-      <c r="G167" s="9" t="s">
+      <c r="G167" s="8" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="168" spans="4:13" ht="16.5" customHeight="1">
-      <c r="F168" s="9" t="s">
+      <c r="F168" s="8" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="169" spans="4:13" ht="16.5" customHeight="1">
-      <c r="D169" s="10" t="s">
+      <c r="D169" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M169" s="1">
@@ -4642,22 +4648,22 @@
       </c>
     </row>
     <row r="170" spans="4:13" ht="16.5" customHeight="1">
-      <c r="E170" s="14" t="s">
+      <c r="E170" s="13" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="171" spans="4:13" ht="16.5" customHeight="1">
-      <c r="E171" s="9" t="s">
+      <c r="E171" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="172" spans="4:13" ht="16.5" customHeight="1">
-      <c r="E172" s="13" t="s">
+      <c r="E172" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="173" spans="4:13" ht="16.5" customHeight="1">
-      <c r="E173" s="11" t="s">
+      <c r="E173" s="10" t="s">
         <v>105</v>
       </c>
       <c r="M173" s="1">
@@ -4665,22 +4671,22 @@
       </c>
     </row>
     <row r="174" spans="4:13" ht="16.5" customHeight="1">
-      <c r="F174" s="14" t="s">
+      <c r="F174" s="13" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="175" spans="4:13" ht="16.5" customHeight="1">
-      <c r="F175" s="13" t="s">
+      <c r="F175" s="12" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="176" spans="4:13" ht="16.5" customHeight="1">
-      <c r="F176" s="9" t="s">
+      <c r="F176" s="8" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="177" spans="6:16" ht="16.5" customHeight="1">
-      <c r="F177" s="9" t="s">
+      <c r="F177" s="8" t="s">
         <v>166</v>
       </c>
       <c r="M177" s="1">
@@ -4688,7 +4694,7 @@
       </c>
     </row>
     <row r="178" spans="6:16" ht="16.5" customHeight="1">
-      <c r="F178" s="9" t="s">
+      <c r="F178" s="8" t="s">
         <v>167</v>
       </c>
       <c r="M178" s="1">
@@ -4696,173 +4702,173 @@
       </c>
     </row>
     <row r="179" spans="6:16" ht="16.5" customHeight="1">
-      <c r="F179" s="9" t="s">
+      <c r="F179" s="8" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="180" spans="6:16" ht="16.5" customHeight="1">
-      <c r="G180" s="9" t="s">
+      <c r="G180" s="8" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="181" spans="6:16" ht="16.5" customHeight="1">
-      <c r="G181" s="17" t="s">
+      <c r="G181" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="P181" s="18" t="s">
+      <c r="P181" s="17" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="182" spans="6:16" ht="16.5" customHeight="1">
-      <c r="H182" s="9" t="s">
+      <c r="H182" s="8" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="183" spans="6:16" ht="16.5" customHeight="1">
-      <c r="I183" s="9" t="s">
+      <c r="I183" s="8" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="184" spans="6:16" ht="16.5" customHeight="1">
-      <c r="I184" s="9" t="s">
+      <c r="I184" s="8" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="185" spans="6:16" ht="16.5" customHeight="1">
-      <c r="I185" s="9" t="s">
+      <c r="I185" s="8" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="186" spans="6:16" ht="16.5" customHeight="1">
-      <c r="I186" s="9" t="s">
+      <c r="I186" s="8" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="187" spans="6:16" ht="16.5" customHeight="1">
-      <c r="H187" s="9" t="s">
+      <c r="H187" s="8" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="188" spans="6:16" ht="16.5" customHeight="1">
-      <c r="I188" s="9" t="s">
+      <c r="I188" s="8" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="189" spans="6:16" ht="16.5" customHeight="1">
-      <c r="I189" s="9" t="s">
+      <c r="I189" s="8" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="190" spans="6:16" ht="16.5" customHeight="1">
-      <c r="I190" s="9" t="s">
+      <c r="I190" s="8" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="191" spans="6:16" ht="16.5" customHeight="1">
-      <c r="I191" s="9" t="s">
+      <c r="I191" s="8" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="192" spans="6:16" ht="16.5" customHeight="1">
-      <c r="I192" s="9" t="s">
+      <c r="I192" s="8" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="193" spans="5:16" ht="16.5" customHeight="1">
-      <c r="H193" s="9" t="s">
+      <c r="H193" s="8" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="194" spans="5:16" ht="16.5" customHeight="1">
-      <c r="I194" s="9" t="s">
+      <c r="I194" s="8" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="195" spans="5:16" ht="16.5" customHeight="1">
-      <c r="I195" s="9" t="s">
+      <c r="I195" s="8" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="196" spans="5:16" ht="16.5" customHeight="1">
-      <c r="I196" s="9" t="s">
+      <c r="I196" s="8" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="197" spans="5:16" ht="16.5" customHeight="1">
-      <c r="I197" s="9" t="s">
+      <c r="I197" s="8" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="198" spans="5:16" ht="16.5" customHeight="1">
-      <c r="I198" s="9" t="s">
+      <c r="I198" s="8" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="199" spans="5:16" ht="16.5" customHeight="1">
-      <c r="G199" s="17" t="s">
+      <c r="G199" s="16" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="200" spans="5:16" ht="16.5" customHeight="1">
-      <c r="G200" s="9" t="s">
+      <c r="G200" s="8" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="201" spans="5:16" ht="16.5" customHeight="1">
-      <c r="H201" s="17" t="s">
+      <c r="H201" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="P201" s="18" t="s">
+      <c r="P201" s="17" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="202" spans="5:16" ht="16.5" customHeight="1">
-      <c r="E202" s="9" t="s">
+      <c r="E202" s="8" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="203" spans="5:16" ht="16.5" customHeight="1">
-      <c r="F203" s="14" t="s">
+      <c r="F203" s="13" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="204" spans="5:16" ht="16.5" customHeight="1">
-      <c r="F204" s="13" t="s">
+      <c r="F204" s="12" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="205" spans="5:16" ht="16.5" customHeight="1">
-      <c r="F205" s="9" t="s">
+      <c r="F205" s="8" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="206" spans="5:16" ht="16.5" customHeight="1">
-      <c r="G206" s="9" t="s">
+      <c r="G206" s="8" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="207" spans="5:16" ht="16.5" customHeight="1">
-      <c r="G207" s="9" t="s">
+      <c r="G207" s="8" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="208" spans="5:16" ht="16.5" customHeight="1">
-      <c r="G208" s="9" t="s">
+      <c r="G208" s="8" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="209" spans="3:13" ht="16.5" customHeight="1">
-      <c r="G209" s="9" t="s">
+      <c r="G209" s="8" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="210" spans="3:13" ht="16.5" customHeight="1">
-      <c r="G210" s="9" t="s">
+      <c r="G210" s="8" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="211" spans="3:13" ht="16.5" customHeight="1">
-      <c r="C211" s="12" t="s">
+      <c r="C211" s="11" t="s">
         <v>42</v>
       </c>
       <c r="M211" s="1">
@@ -4870,12 +4876,12 @@
       </c>
     </row>
     <row r="212" spans="3:13" ht="16.5" customHeight="1">
-      <c r="D212" s="14" t="s">
+      <c r="D212" s="13" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="213" spans="3:13" ht="16.5" customHeight="1">
-      <c r="C213" s="12" t="s">
+      <c r="C213" s="11" t="s">
         <v>43</v>
       </c>
       <c r="M213" s="1">
@@ -4883,12 +4889,12 @@
       </c>
     </row>
     <row r="214" spans="3:13" ht="16.5" customHeight="1">
-      <c r="D214" s="14" t="s">
+      <c r="D214" s="13" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="215" spans="3:13" ht="16.5" customHeight="1">
-      <c r="C215" s="12" t="s">
+      <c r="C215" s="11" t="s">
         <v>44</v>
       </c>
       <c r="M215" s="1">
@@ -4896,12 +4902,12 @@
       </c>
     </row>
     <row r="216" spans="3:13" ht="16.5" customHeight="1">
-      <c r="D216" s="14" t="s">
+      <c r="D216" s="13" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="217" spans="3:13" ht="16.5" customHeight="1">
-      <c r="D217" s="9" t="s">
+      <c r="D217" s="8" t="s">
         <v>68</v>
       </c>
       <c r="M217" s="1">
@@ -4909,211 +4915,211 @@
       </c>
     </row>
     <row r="218" spans="3:13" ht="16.5" customHeight="1">
-      <c r="E218" s="13" t="s">
+      <c r="E218" s="12" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="219" spans="3:13" ht="16.5" customHeight="1">
-      <c r="E219" s="9" t="s">
+      <c r="E219" s="8" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="220" spans="3:13" ht="16.5" customHeight="1">
-      <c r="D220" s="9" t="s">
+      <c r="D220" s="8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="221" spans="3:13" ht="16.5" customHeight="1">
-      <c r="E221" s="13" t="s">
+      <c r="E221" s="12" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="222" spans="3:13" ht="16.5" customHeight="1">
-      <c r="D222" s="9" t="s">
+      <c r="D222" s="8" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="223" spans="3:13" ht="16.5" customHeight="1">
-      <c r="E223" s="13" t="s">
+      <c r="E223" s="12" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="224" spans="3:13" ht="16.5" customHeight="1">
-      <c r="E224" s="9" t="s">
+      <c r="E224" s="8" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="225" spans="4:16" ht="16.5" customHeight="1">
-      <c r="D225" s="9" t="s">
+      <c r="D225" s="8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="226" spans="4:16" ht="16.5" customHeight="1">
-      <c r="E226" s="13" t="s">
+      <c r="E226" s="12" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="227" spans="4:16" ht="16.5" customHeight="1">
-      <c r="D227" s="9" t="s">
+      <c r="D227" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="228" spans="4:16" ht="16.5" customHeight="1">
-      <c r="E228" s="13" t="s">
+      <c r="E228" s="12" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="229" spans="4:16" ht="16.5" customHeight="1">
-      <c r="E229" s="9" t="s">
+      <c r="E229" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="230" spans="4:16" ht="16.5" customHeight="1">
-      <c r="E230" s="9" t="s">
+      <c r="E230" s="8" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="231" spans="4:16" ht="16.5" customHeight="1">
-      <c r="E231" s="9" t="s">
+      <c r="E231" s="8" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="232" spans="4:16" ht="16.5" customHeight="1">
-      <c r="E232" s="9" t="s">
+      <c r="E232" s="8" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="233" spans="4:16" ht="16.5" customHeight="1">
-      <c r="D233" s="9" t="s">
+      <c r="D233" s="8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="234" spans="4:16" ht="16.5" customHeight="1">
-      <c r="E234" s="14" t="s">
+      <c r="E234" s="13" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="235" spans="4:16" ht="16.5" customHeight="1">
-      <c r="E235" s="13" t="s">
+      <c r="E235" s="12" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="236" spans="4:16" ht="16.5" customHeight="1">
-      <c r="E236" s="9" t="s">
+      <c r="E236" s="8" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="237" spans="4:16" ht="16.5" customHeight="1">
-      <c r="E237" s="9" t="s">
+      <c r="E237" s="8" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="238" spans="4:16" ht="16.5" customHeight="1">
-      <c r="D238" s="9" t="s">
+      <c r="D238" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="239" spans="4:16" ht="16.5" customHeight="1">
-      <c r="E239" s="13" t="s">
+      <c r="E239" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="240" spans="4:16" ht="16.5" customHeight="1">
-      <c r="E240" s="17" t="s">
+      <c r="E240" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="P240" s="18" t="s">
+      <c r="P240" s="17" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="241" spans="5:16" ht="16.5" customHeight="1">
-      <c r="F241" s="9" t="s">
+      <c r="F241" s="8" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="242" spans="5:16" ht="16.5" customHeight="1">
-      <c r="F242" s="9" t="s">
+      <c r="F242" s="8" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="243" spans="5:16" ht="16.5" customHeight="1">
-      <c r="F243" s="9" t="s">
+      <c r="F243" s="8" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="244" spans="5:16" ht="16.5" customHeight="1">
-      <c r="F244" s="9" t="s">
+      <c r="F244" s="8" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="245" spans="5:16" ht="16.5" customHeight="1">
-      <c r="E245" s="17" t="s">
+      <c r="E245" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="P245" s="18" t="s">
+      <c r="P245" s="17" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="246" spans="5:16" ht="16.5" customHeight="1">
-      <c r="F246" s="9" t="s">
+      <c r="F246" s="8" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="247" spans="5:16" ht="16.5" customHeight="1">
-      <c r="G247" s="9" t="s">
+      <c r="G247" s="8" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="248" spans="5:16" ht="16.5" customHeight="1">
-      <c r="G248" s="9" t="s">
+      <c r="G248" s="8" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="249" spans="5:16" ht="16.5" customHeight="1">
-      <c r="G249" s="9" t="s">
+      <c r="G249" s="8" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="250" spans="5:16" ht="16.5" customHeight="1">
-      <c r="G250" s="9" t="s">
+      <c r="G250" s="8" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="251" spans="5:16" ht="16.5" customHeight="1">
-      <c r="G251" s="9" t="s">
+      <c r="G251" s="8" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="252" spans="5:16" ht="16.5" customHeight="1">
-      <c r="G252" s="9" t="s">
+      <c r="G252" s="8" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="253" spans="5:16" ht="16.5" customHeight="1">
-      <c r="G253" s="9" t="s">
+      <c r="G253" s="8" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="254" spans="5:16" ht="16.5" customHeight="1">
-      <c r="G254" s="9" t="s">
+      <c r="G254" s="8" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="255" spans="5:16" ht="16.5" customHeight="1">
-      <c r="E255" s="17" t="s">
+      <c r="E255" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="P255" s="18" t="s">
+      <c r="P255" s="17" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="256" spans="5:16" ht="16.5" customHeight="1">
-      <c r="F256" s="9" t="s">
+      <c r="F256" s="8" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="257" spans="4:13" ht="16.5" customHeight="1">
-      <c r="D257" s="10" t="s">
+      <c r="D257" s="9" t="s">
         <v>74</v>
       </c>
       <c r="M257" s="1">
@@ -5121,27 +5127,27 @@
       </c>
     </row>
     <row r="258" spans="4:13" ht="16.5" customHeight="1">
-      <c r="E258" s="14" t="s">
+      <c r="E258" s="13" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="259" spans="4:13" ht="16.5" customHeight="1">
-      <c r="E259" s="13" t="s">
+      <c r="E259" s="12" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="260" spans="4:13" ht="16.5" customHeight="1">
-      <c r="E260" s="17" t="s">
+      <c r="E260" s="16" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="261" spans="4:13" ht="16.5" customHeight="1">
-      <c r="E261" s="17" t="s">
+      <c r="E261" s="16" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="262" spans="4:13" ht="16.5" customHeight="1">
-      <c r="E262" s="9" t="s">
+      <c r="E262" s="8" t="s">
         <v>125</v>
       </c>
       <c r="M262" s="1">
@@ -5149,12 +5155,12 @@
       </c>
     </row>
     <row r="263" spans="4:13" ht="16.5" customHeight="1">
-      <c r="E263" s="9" t="s">
+      <c r="E263" s="8" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="264" spans="4:13" ht="16.5" customHeight="1">
-      <c r="E264" s="9" t="s">
+      <c r="E264" s="8" t="s">
         <v>127</v>
       </c>
       <c r="M264" s="1">
@@ -5162,17 +5168,17 @@
       </c>
     </row>
     <row r="265" spans="4:13" ht="16.5" customHeight="1">
-      <c r="F265" s="9" t="s">
+      <c r="F265" s="8" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="266" spans="4:13" ht="16.5" customHeight="1">
-      <c r="F266" s="9" t="s">
+      <c r="F266" s="8" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="267" spans="4:13" ht="16.5" customHeight="1">
-      <c r="E267" s="9" t="s">
+      <c r="E267" s="8" t="s">
         <v>128</v>
       </c>
       <c r="M267" s="1">
@@ -5180,12 +5186,12 @@
       </c>
     </row>
     <row r="268" spans="4:13" ht="16.5" customHeight="1">
-      <c r="F268" s="9" t="s">
+      <c r="F268" s="8" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="269" spans="4:13" ht="16.5" customHeight="1">
-      <c r="E269" s="9" t="s">
+      <c r="E269" s="8" t="s">
         <v>129</v>
       </c>
       <c r="M269" s="1">
@@ -5193,12 +5199,12 @@
       </c>
     </row>
     <row r="270" spans="4:13" ht="16.5" customHeight="1">
-      <c r="F270" s="9" t="s">
+      <c r="F270" s="8" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="271" spans="4:13" ht="16.5" customHeight="1">
-      <c r="E271" s="9" t="s">
+      <c r="E271" s="8" t="s">
         <v>130</v>
       </c>
       <c r="M271" s="1">
@@ -5206,12 +5212,12 @@
       </c>
     </row>
     <row r="272" spans="4:13" ht="16.5" customHeight="1">
-      <c r="F272" s="9" t="s">
+      <c r="F272" s="8" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="273" spans="2:16" ht="16.5" customHeight="1">
-      <c r="E273" s="9" t="s">
+      <c r="E273" s="8" t="s">
         <v>131</v>
       </c>
       <c r="M273" s="1">
@@ -5219,12 +5225,12 @@
       </c>
     </row>
     <row r="274" spans="2:16" ht="16.5" customHeight="1">
-      <c r="F274" s="9" t="s">
+      <c r="F274" s="8" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="275" spans="2:16" ht="16.5" customHeight="1">
-      <c r="E275" s="9" t="s">
+      <c r="E275" s="8" t="s">
         <v>132</v>
       </c>
       <c r="M275" s="1">
@@ -5232,22 +5238,22 @@
       </c>
     </row>
     <row r="276" spans="2:16" ht="16.5" customHeight="1">
-      <c r="F276" s="9" t="s">
+      <c r="F276" s="8" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="277" spans="2:16" ht="16.5" customHeight="1">
-      <c r="E277" s="11" t="s">
+      <c r="E277" s="10" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="278" spans="2:16" ht="16.5" customHeight="1">
-      <c r="F278" s="17" t="s">
+      <c r="F278" s="16" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="279" spans="2:16" ht="16.5" customHeight="1">
-      <c r="E279" s="8" t="s">
+      <c r="E279" s="7" t="s">
         <v>133</v>
       </c>
       <c r="M279" s="1">
@@ -5255,82 +5261,82 @@
       </c>
     </row>
     <row r="280" spans="2:16" ht="16.5" customHeight="1">
-      <c r="F280" s="14" t="s">
+      <c r="F280" s="13" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="281" spans="2:16" ht="16.5" customHeight="1">
-      <c r="F281" s="9" t="s">
+      <c r="F281" s="8" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="282" spans="2:16" ht="16.5" customHeight="1">
-      <c r="F282" s="9" t="s">
+      <c r="F282" s="8" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="283" spans="2:16" ht="16.5" customHeight="1">
-      <c r="F283" s="9" t="s">
+      <c r="F283" s="8" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="284" spans="2:16" ht="16.5" customHeight="1">
-      <c r="F284" s="9" t="s">
+      <c r="F284" s="8" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="285" spans="2:16" ht="16.5" customHeight="1">
-      <c r="F285" s="9" t="s">
+      <c r="F285" s="8" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="286" spans="2:16" ht="19.5" customHeight="1">
-      <c r="B286" s="7" t="s">
+      <c r="B286" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="P286" s="18" t="s">
+      <c r="P286" s="17" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="287" spans="2:16" ht="16.5" customHeight="1">
-      <c r="C287" s="9" t="s">
+      <c r="C287" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="288" spans="2:16" ht="16.5" customHeight="1">
-      <c r="D288" s="8" t="s">
+      <c r="D288" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P288" s="18" t="s">
+      <c r="P288" s="17" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="289" spans="4:16" ht="16.5" customHeight="1">
-      <c r="D289" s="9" t="s">
+      <c r="D289" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="290" spans="4:16" ht="16.5" customHeight="1">
-      <c r="E290" s="9" t="s">
+      <c r="E290" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="P290" s="18" t="s">
+      <c r="P290" s="17" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="291" spans="4:16" ht="16.5" customHeight="1">
-      <c r="E291" s="9" t="s">
+      <c r="E291" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="P291" s="18" t="s">
+      <c r="P291" s="17" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="292" spans="4:16" ht="16.5" customHeight="1">
-      <c r="E292" s="9" t="s">
+      <c r="E292" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="P292" s="18" t="s">
+      <c r="P292" s="17" t="s">
         <v>302</v>
       </c>
     </row>
@@ -5365,7 +5371,7 @@
     <hyperlink ref="P292" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId21"/>
+  <pageSetup scale="78" fitToWidth="2" fitToHeight="0" orientation="landscape" r:id="rId21"/>
+  <drawing r:id="rId22"/>
 </worksheet>
 </file>
--- a/MindManager3/Sec01-01-01.xlsx
+++ b/MindManager3/Sec01-01-01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o334-my.sharepoint.com/personal/mskn55_iri-net_tokyo/Documents/git_repository_Duo/Sharing_Knowledge3/MindManager3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_B7879F88AA11EF8E6360C9D11BFF80597574BC88" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CF9C3408-13C3-4BB1-AD2C-F39CE728968C}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_E1CBDA54A90E0AC6657779311396E81B63E51C42" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{83DC8151-61D2-486B-9D07-C46B252D05A4}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="650" windowWidth="17620" windowHeight="10090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,60 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="303">
-  <si>
-    <t>レベル 0</t>
-  </si>
-  <si>
-    <t>レベル 1</t>
-  </si>
-  <si>
-    <t>レベル 2</t>
-  </si>
-  <si>
-    <t>レベル 3</t>
-  </si>
-  <si>
-    <t>レベル 4</t>
-  </si>
-  <si>
-    <t>レベル 5</t>
-  </si>
-  <si>
-    <t>レベル 6</t>
-  </si>
-  <si>
-    <t>レベル 7</t>
-  </si>
-  <si>
-    <t>レベル 8</t>
-  </si>
-  <si>
-    <t>アイコン: Arrows</t>
-  </si>
-  <si>
-    <t>アイコン: Flags</t>
-  </si>
-  <si>
-    <t>アイコン: Smileys</t>
-  </si>
-  <si>
-    <t>優先順位</t>
-  </si>
-  <si>
-    <t>リレーションシップ</t>
-  </si>
-  <si>
-    <t>リレーションシップの種類</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="288">
+  <si>
+    <t>Sec01-01-01_「中小企業向けサイバーセキュリティ対策の極意」の改訂（追補資料の作成）</t>
+  </si>
+  <si>
+    <t>改訂履歴</t>
   </si>
   <si>
     <t>リンク</t>
-  </si>
-  <si>
-    <t>Sec01-01-01_「中小企業向けサイバーセキュリティ対策の極意」の改訂（追補資料の作成）</t>
-  </si>
-  <si>
-    <t>改訂履歴</t>
   </si>
   <si>
     <t>改訂理由</t>
@@ -951,7 +906,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1064,13 +1019,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -1119,7 +1067,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1172,12 +1120,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1202,13 +1144,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1232,7 +1174,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="82251550" y="10998200"/>
+          <a:off x="82251550" y="10737850"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1246,13 +1188,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1276,7 +1218,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="82251550" y="11836400"/>
+          <a:off x="82251550" y="11576050"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1290,13 +1232,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1320,7 +1262,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="82251550" y="17678400"/>
+          <a:off x="82251550" y="17418050"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1334,13 +1276,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1364,7 +1306,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="82251550" y="19564350"/>
+          <a:off x="82251550" y="19304000"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1378,13 +1320,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1408,7 +1350,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="82251550" y="23964900"/>
+          <a:off x="82251550" y="23704550"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1422,13 +1364,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1452,7 +1394,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="82251550" y="24593550"/>
+          <a:off x="82251550" y="24333200"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1466,13 +1408,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1496,7 +1438,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="82251550" y="25641300"/>
+          <a:off x="82251550" y="25380950"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1510,13 +1452,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1540,7 +1482,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="82251550" y="27527250"/>
+          <a:off x="82251550" y="27266900"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1554,13 +1496,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1584,7 +1526,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="82251550" y="28155900"/>
+          <a:off x="82251550" y="27895550"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1598,13 +1540,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1628,7 +1570,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="82251550" y="32975550"/>
+          <a:off x="82251550" y="32715200"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1642,13 +1584,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1672,7 +1614,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="82251550" y="35699700"/>
+          <a:off x="82251550" y="35439350"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1686,13 +1628,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1716,7 +1658,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="82251550" y="36537900"/>
+          <a:off x="82251550" y="36277550"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1730,13 +1672,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1760,7 +1702,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="82251550" y="42614850"/>
+          <a:off x="82251550" y="42354500"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1774,13 +1716,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>211</xdr:row>
+      <xdr:row>210</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>211</xdr:row>
+      <xdr:row>210</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1804,7 +1746,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="82251550" y="44500800"/>
+          <a:off x="82251550" y="44240450"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1818,13 +1760,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>213</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>213</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1848,7 +1790,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="82251550" y="44919900"/>
+          <a:off x="82251550" y="44659550"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1862,13 +1804,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>215</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>215</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1892,7 +1834,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="82251550" y="45339000"/>
+          <a:off x="82251550" y="45078650"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1906,13 +1848,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>233</xdr:row>
+      <xdr:row>232</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>233</xdr:row>
+      <xdr:row>232</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1936,7 +1878,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="82251550" y="49110900"/>
+          <a:off x="82251550" y="48850550"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1950,13 +1892,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>257</xdr:row>
+      <xdr:row>256</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>257</xdr:row>
+      <xdr:row>256</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1980,7 +1922,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="82251550" y="54140100"/>
+          <a:off x="82251550" y="53879750"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1994,13 +1936,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>279</xdr:row>
+      <xdr:row>278</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>279</xdr:row>
+      <xdr:row>278</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2024,7 +1966,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="82251550" y="58750200"/>
+          <a:off x="82251550" y="58489850"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2038,13 +1980,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2068,7 +2010,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="83883500" y="6769100"/>
+          <a:off x="83096100" y="6508750"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2082,13 +2024,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2112,7 +2054,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="83883500" y="7645400"/>
+          <a:off x="83096100" y="7385050"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2126,13 +2068,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2156,7 +2098,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="83883500" y="8693150"/>
+          <a:off x="83096100" y="8432800"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2170,13 +2112,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2200,7 +2142,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="83883500" y="9321800"/>
+          <a:off x="83096100" y="9061450"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2214,13 +2156,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2244,7 +2186,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="83883500" y="10579100"/>
+          <a:off x="83096100" y="10318750"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2258,13 +2200,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2288,7 +2230,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="83883500" y="13277850"/>
+          <a:off x="83096100" y="13017500"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2302,13 +2244,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2332,7 +2274,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="83883500" y="18097500"/>
+          <a:off x="83096100" y="17837150"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2346,13 +2288,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2376,7 +2318,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="83883500" y="18726150"/>
+          <a:off x="83096100" y="18465800"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2390,13 +2332,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2420,7 +2362,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="83883500" y="27736800"/>
+          <a:off x="83096100" y="27476450"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2434,13 +2376,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2464,7 +2406,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="83883500" y="36118800"/>
+          <a:off x="83096100" y="35858450"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2478,13 +2420,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2508,7 +2450,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="83883500" y="36747450"/>
+          <a:off x="83096100" y="36487100"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2522,13 +2464,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>202</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>202</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2552,7 +2494,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="83883500" y="42824400"/>
+          <a:off x="83096100" y="42564050"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2566,13 +2508,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>217</xdr:row>
+      <xdr:row>216</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>217</xdr:row>
+      <xdr:row>216</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2596,7 +2538,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="83883500" y="45758100"/>
+          <a:off x="83096100" y="45497750"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2610,13 +2552,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>220</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>220</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2640,7 +2582,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="83883500" y="46386750"/>
+          <a:off x="83096100" y="46126400"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2654,13 +2596,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>222</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>222</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2684,7 +2626,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="83883500" y="46805850"/>
+          <a:off x="83096100" y="46545500"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2698,13 +2640,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>225</xdr:row>
+      <xdr:row>224</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>225</xdr:row>
+      <xdr:row>224</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2728,7 +2670,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="83883500" y="47434500"/>
+          <a:off x="83096100" y="47174150"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2742,13 +2684,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>227</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>227</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2772,7 +2714,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="83883500" y="47853600"/>
+          <a:off x="83096100" y="47593250"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2786,13 +2728,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>234</xdr:row>
+      <xdr:row>233</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>234</xdr:row>
+      <xdr:row>233</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2816,7 +2758,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="83883500" y="49320450"/>
+          <a:off x="83096100" y="49060100"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2830,13 +2772,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>238</xdr:row>
+      <xdr:row>237</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>238</xdr:row>
+      <xdr:row>237</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2860,7 +2802,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="83883500" y="50158650"/>
+          <a:off x="83096100" y="49898300"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2874,13 +2816,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>258</xdr:row>
+      <xdr:row>257</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>258</xdr:row>
+      <xdr:row>257</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2904,7 +2846,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="83883500" y="54349650"/>
+          <a:off x="83096100" y="54089300"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2918,13 +2860,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2948,7 +2890,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="85363050" y="323850"/>
+          <a:off x="83940650" y="63500"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2962,13 +2904,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2992,7 +2934,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="85363050" y="3397250"/>
+          <a:off x="83940650" y="3136900"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3006,13 +2948,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3036,7 +2978,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="85363050" y="7226300"/>
+          <a:off x="83940650" y="6965950"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3050,13 +2992,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3080,7 +3022,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="85363050" y="8274050"/>
+          <a:off x="83940650" y="8013700"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3094,13 +3036,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3124,7 +3066,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="85363050" y="10788650"/>
+          <a:off x="83940650" y="10528300"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3138,13 +3080,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3168,7 +3110,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="85363050" y="11626850"/>
+          <a:off x="83940650" y="11366500"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3182,13 +3124,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>210</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>210</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3212,7 +3154,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="85363050" y="44291250"/>
+          <a:off x="83940650" y="44030900"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3226,13 +3168,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>212</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>212</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3256,7 +3198,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="85363050" y="44710350"/>
+          <a:off x="83940650" y="44450000"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3270,13 +3212,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>214</xdr:row>
+      <xdr:row>213</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>214</xdr:row>
+      <xdr:row>213</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3300,7 +3242,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="85363050" y="45129450"/>
+          <a:off x="83940650" y="44869100"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3613,1081 +3555,1038 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P292"/>
+  <dimension ref="A1:P291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.26953125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="16384" width="10.26953125" style="1"/>
+    <col min="1" max="16384" width="10.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="19" customFormat="1" ht="20.5" customHeight="1">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:16" ht="22.5" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="M1" s="1">
+        <v>3</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="19.5" customHeight="1">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="18" t="s">
+    </row>
+    <row r="3" spans="1:16" ht="16.5" customHeight="1">
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+    </row>
+    <row r="4" spans="1:16" ht="16.5" customHeight="1">
+      <c r="C4" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="1">
-        <v>3</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="19.5" customHeight="1">
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="16.5" customHeight="1">
-      <c r="C4" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="16.5" customHeight="1">
       <c r="C5" s="8" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="16.5" customHeight="1">
       <c r="C6" s="8" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="16.5" customHeight="1">
       <c r="C7" s="8" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="16.5" customHeight="1">
       <c r="C8" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="16.5" customHeight="1">
-      <c r="C9" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="19.5" customHeight="1">
-      <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="19.5" customHeight="1">
+      <c r="B9" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="16.5" customHeight="1">
+      <c r="C10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="17" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="16.5" customHeight="1">
-      <c r="C11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P11" s="17" t="s">
-        <v>285</v>
+      <c r="C11" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="16.5" customHeight="1">
-      <c r="C12" s="8" t="s">
-        <v>28</v>
+      <c r="D12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="17" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="16.5" customHeight="1">
       <c r="D13" s="8" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="P13" s="17" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="16.5" customHeight="1">
       <c r="D14" s="8" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="P14" s="17" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="16.5" customHeight="1">
-      <c r="D15" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="19.5" customHeight="1">
+      <c r="B15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="16.5" customHeight="1">
+      <c r="C16" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="16.5" customHeight="1">
+      <c r="D17" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="16.5" customHeight="1">
+      <c r="D18" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="16.5" customHeight="1">
+      <c r="E19" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" ht="16.5" customHeight="1">
+      <c r="D20" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" ht="16.5" customHeight="1">
+      <c r="E21" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" ht="16.5" customHeight="1">
+      <c r="C22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="1">
+        <v>4</v>
+      </c>
+      <c r="N22" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="P15" s="17" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="19.5" customHeight="1">
-      <c r="B16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M16" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="3:15" ht="16.5" customHeight="1">
-      <c r="C17" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" ht="16.5" customHeight="1">
-      <c r="D18" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" ht="16.5" customHeight="1">
-      <c r="D19" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="3:15" ht="16.5" customHeight="1">
-      <c r="E20" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" ht="16.5" customHeight="1">
-      <c r="D21" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" ht="16.5" customHeight="1">
-      <c r="E22" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" ht="16.5" customHeight="1">
+      <c r="O22" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" ht="16.5" customHeight="1">
       <c r="C23" s="10" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M23" s="1">
         <v>4</v>
       </c>
       <c r="N23" s="17" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" ht="16.5" customHeight="1">
-      <c r="C24" s="10" t="s">
-        <v>31</v>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" ht="16.5" customHeight="1">
+      <c r="C24" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="M24" s="1">
         <v>4</v>
       </c>
-      <c r="N24" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" ht="16.5" customHeight="1">
+    </row>
+    <row r="25" spans="2:15" ht="16.5" customHeight="1">
       <c r="C25" s="9" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="M25" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="3:15" ht="16.5" customHeight="1">
+    <row r="26" spans="2:15" ht="16.5" customHeight="1">
       <c r="C26" s="9" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M26" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" ht="16.5" customHeight="1">
+      <c r="N26" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" ht="16.5" customHeight="1">
       <c r="C27" s="9" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="M27" s="1">
         <v>4</v>
       </c>
-      <c r="N27" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" ht="16.5" customHeight="1">
+    </row>
+    <row r="28" spans="2:15" ht="16.5" customHeight="1">
       <c r="C28" s="9" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="M28" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="3:15" ht="16.5" customHeight="1">
-      <c r="C29" s="9" t="s">
+    <row r="29" spans="2:15" ht="16.5" customHeight="1">
+      <c r="C29" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" ht="16.5" customHeight="1">
+      <c r="D30" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="M29" s="1">
+    </row>
+    <row r="31" spans="2:15" ht="16.5" customHeight="1">
+      <c r="D31" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" ht="19.5" customHeight="1">
+      <c r="B32" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="3:15" ht="16.5" customHeight="1">
-      <c r="C30" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="3:15" ht="16.5" customHeight="1">
-      <c r="D31" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="3:15" ht="16.5" customHeight="1">
-      <c r="D32" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" ht="19.5" customHeight="1">
-      <c r="B33" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" ht="16.5" customHeight="1">
-      <c r="C34" s="11" t="s">
+    <row r="33" spans="3:16" ht="16.5" customHeight="1">
+      <c r="C33" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="3:16" ht="16.5" customHeight="1">
+      <c r="D34" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="M34" s="1">
+    </row>
+    <row r="35" spans="3:16" ht="16.5" customHeight="1">
+      <c r="E35" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16" ht="16.5" customHeight="1">
+      <c r="E36" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="3:16" ht="16.5" customHeight="1">
+      <c r="E37" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16" ht="16.5" customHeight="1">
+      <c r="C38" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M38" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:16" ht="16.5" customHeight="1">
-      <c r="D35" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="2:16" ht="16.5" customHeight="1">
-      <c r="E36" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" ht="16.5" customHeight="1">
-      <c r="E37" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16" ht="16.5" customHeight="1">
-      <c r="E38" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" ht="16.5" customHeight="1">
-      <c r="C39" s="11" t="s">
+    <row r="39" spans="3:16" ht="16.5" customHeight="1">
+      <c r="D39" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="M39" s="1">
+    </row>
+    <row r="40" spans="3:16" ht="16.5" customHeight="1">
+      <c r="E40" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="3:16" ht="16.5" customHeight="1">
+      <c r="E41" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="3:16" ht="16.5" customHeight="1">
+      <c r="D42" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M42" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="3:16" ht="16.5" customHeight="1">
+      <c r="E43" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="3:16" ht="16.5" customHeight="1">
+      <c r="E44" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="3:16" ht="16.5" customHeight="1">
+      <c r="F45" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="P45" s="17" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="46" spans="3:16" ht="16.5" customHeight="1">
+      <c r="F46" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="3:16" ht="16.5" customHeight="1">
+      <c r="E47" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="3:16" ht="16.5" customHeight="1">
+      <c r="D48" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M48" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" ht="16.5" customHeight="1">
+      <c r="E49" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" ht="16.5" customHeight="1">
+      <c r="C50" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M50" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="2:16" ht="16.5" customHeight="1">
-      <c r="D40" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="2:16" ht="16.5" customHeight="1">
-      <c r="E41" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" ht="16.5" customHeight="1">
-      <c r="E42" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" ht="16.5" customHeight="1">
-      <c r="D43" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="M43" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" ht="16.5" customHeight="1">
-      <c r="E44" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" ht="16.5" customHeight="1">
-      <c r="E45" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" ht="16.5" customHeight="1">
-      <c r="F46" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="P46" s="17" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" ht="16.5" customHeight="1">
-      <c r="F47" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" ht="16.5" customHeight="1">
-      <c r="E48" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" ht="16.5" customHeight="1">
-      <c r="D49" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="M49" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:16" ht="16.5" customHeight="1">
-      <c r="E50" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
     <row r="51" spans="3:16" ht="16.5" customHeight="1">
-      <c r="C51" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M51" s="1">
-        <v>4</v>
+      <c r="D51" s="13" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="3:16" ht="16.5" customHeight="1">
-      <c r="D52" s="13" t="s">
-        <v>57</v>
+      <c r="D52" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="3:16" ht="16.5" customHeight="1">
       <c r="D53" s="8" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="3:16" ht="16.5" customHeight="1">
-      <c r="D54" s="8" t="s">
-        <v>59</v>
+      <c r="C54" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M54" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="3:16" ht="16.5" customHeight="1">
-      <c r="C55" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="M55" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="3:16" ht="16.5" customHeight="1">
-      <c r="D56" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="3:16" ht="14.5" customHeight="1">
-      <c r="D57" s="14" t="s">
-        <v>61</v>
+      <c r="D55" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="3:16" ht="14.5" customHeight="1">
+      <c r="D56" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="3:16" ht="16.5" customHeight="1">
+      <c r="E57" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="P57" s="17" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="58" spans="3:16" ht="16.5" customHeight="1">
       <c r="E58" s="8" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="P58" s="17" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
     </row>
     <row r="59" spans="3:16" ht="16.5" customHeight="1">
-      <c r="E59" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="P59" s="17" t="s">
-        <v>291</v>
+      <c r="F59" s="8" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="3:16" ht="16.5" customHeight="1">
-      <c r="F60" s="8" t="s">
-        <v>136</v>
+      <c r="D60" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M60" s="1">
+        <v>5</v>
+      </c>
+      <c r="N60" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="61" spans="3:16" ht="16.5" customHeight="1">
-      <c r="D61" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="M61" s="1">
-        <v>5</v>
-      </c>
-      <c r="N61" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>284</v>
+      <c r="E61" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="P61" s="17" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="62" spans="3:16" ht="16.5" customHeight="1">
-      <c r="E62" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="P62" s="17" t="s">
-        <v>292</v>
+      <c r="E62" s="12" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="3:16" ht="16.5" customHeight="1">
-      <c r="E63" s="12" t="s">
-        <v>88</v>
+      <c r="E63" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="3:16" ht="16.5" customHeight="1">
-      <c r="E64" s="8" t="s">
-        <v>89</v>
+      <c r="F64" s="8" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="5:16" ht="16.5" customHeight="1">
       <c r="F65" s="8" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" spans="5:16" ht="16.5" customHeight="1">
       <c r="F66" s="8" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="5:16" ht="16.5" customHeight="1">
-      <c r="F67" s="8" t="s">
-        <v>139</v>
+      <c r="E67" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P67" s="17" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="68" spans="5:16" ht="16.5" customHeight="1">
-      <c r="E68" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="P68" s="17" t="s">
-        <v>293</v>
+      <c r="F68" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="5:16" ht="16.5" customHeight="1">
-      <c r="F69" s="8" t="s">
-        <v>140</v>
+      <c r="G69" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="70" spans="5:16" ht="16.5" customHeight="1">
       <c r="G70" s="8" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="5:16" ht="16.5" customHeight="1">
       <c r="G71" s="8" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="72" spans="5:16" ht="16.5" customHeight="1">
-      <c r="G72" s="8" t="s">
-        <v>194</v>
+      <c r="F72" s="8" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="5:16" ht="16.5" customHeight="1">
-      <c r="F73" s="8" t="s">
-        <v>141</v>
+      <c r="G73" s="8" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="74" spans="5:16" ht="16.5" customHeight="1">
       <c r="G74" s="8" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="5:16" ht="16.5" customHeight="1">
-      <c r="G75" s="8" t="s">
-        <v>196</v>
+      <c r="F75" s="8" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="76" spans="5:16" ht="16.5" customHeight="1">
-      <c r="F76" s="8" t="s">
-        <v>142</v>
+      <c r="G76" s="8" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="5:16" ht="16.5" customHeight="1">
       <c r="G77" s="8" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="5:16" ht="16.5" customHeight="1">
-      <c r="G78" s="8" t="s">
-        <v>198</v>
+      <c r="F78" s="8" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="5:16" ht="16.5" customHeight="1">
-      <c r="F79" s="8" t="s">
-        <v>143</v>
+      <c r="G79" s="8" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="80" spans="5:16" ht="16.5" customHeight="1">
-      <c r="G80" s="8" t="s">
-        <v>199</v>
+      <c r="E80" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="4:15" ht="16.5" customHeight="1">
-      <c r="E81" s="8" t="s">
-        <v>91</v>
+      <c r="F81" s="8" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="82" spans="4:15" ht="16.5" customHeight="1">
-      <c r="F82" s="8" t="s">
-        <v>144</v>
+      <c r="D82" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N82" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="83" spans="4:15" ht="16.5" customHeight="1">
-      <c r="D83" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="N83" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="O83" s="1" t="s">
-        <v>284</v>
+      <c r="E83" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="4:15" ht="16.5" customHeight="1">
-      <c r="E84" s="13" t="s">
-        <v>92</v>
+      <c r="E84" s="8" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="4:15" ht="16.5" customHeight="1">
-      <c r="E85" s="8" t="s">
-        <v>93</v>
+      <c r="E85" s="12" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="4:15" ht="16.5" customHeight="1">
-      <c r="E86" s="12" t="s">
-        <v>94</v>
+      <c r="D86" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M86" s="1">
+        <v>4</v>
+      </c>
+      <c r="N86" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="87" spans="4:15" ht="16.5" customHeight="1">
-      <c r="D87" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M87" s="1">
-        <v>4</v>
-      </c>
-      <c r="N87" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="O87" s="1" t="s">
-        <v>284</v>
+      <c r="E87" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="88" spans="4:15" ht="16.5" customHeight="1">
-      <c r="E88" s="8" t="s">
-        <v>95</v>
+      <c r="E88" s="12" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="89" spans="4:15" ht="16.5" customHeight="1">
-      <c r="E89" s="12" t="s">
-        <v>96</v>
+      <c r="E89" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M89" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="4:15" ht="16.5" customHeight="1">
-      <c r="E90" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="M90" s="1">
-        <v>5</v>
+      <c r="F90" s="10" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="91" spans="4:15" ht="16.5" customHeight="1">
-      <c r="F91" s="10" t="s">
+      <c r="F91" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" spans="4:15" ht="16.5" customHeight="1">
+      <c r="G92" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="92" spans="4:15" ht="16.5" customHeight="1">
-      <c r="F92" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
     <row r="93" spans="4:15" ht="16.5" customHeight="1">
-      <c r="G93" s="13" t="s">
-        <v>160</v>
+      <c r="G93" s="8" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="94" spans="4:15" ht="16.5" customHeight="1">
       <c r="G94" s="8" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="95" spans="4:15" ht="16.5" customHeight="1">
       <c r="G95" s="8" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="96" spans="4:15" ht="16.5" customHeight="1">
       <c r="G96" s="8" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="97" spans="6:9" ht="16.5" customHeight="1">
-      <c r="G97" s="8" t="s">
-        <v>203</v>
+      <c r="H97" s="8" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="98" spans="6:9" ht="16.5" customHeight="1">
       <c r="H98" s="8" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
     </row>
     <row r="99" spans="6:9" ht="16.5" customHeight="1">
       <c r="H99" s="8" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
     </row>
     <row r="100" spans="6:9" ht="16.5" customHeight="1">
       <c r="H100" s="8" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="101" spans="6:9" ht="16.5" customHeight="1">
       <c r="H101" s="8" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
     <row r="102" spans="6:9" ht="16.5" customHeight="1">
       <c r="H102" s="8" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
     </row>
     <row r="103" spans="6:9" ht="16.5" customHeight="1">
       <c r="H103" s="8" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="104" spans="6:9" ht="16.5" customHeight="1">
       <c r="H104" s="8" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="105" spans="6:9" ht="16.5" customHeight="1">
       <c r="H105" s="8" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="106" spans="6:9" ht="16.5" customHeight="1">
-      <c r="H106" s="8" t="s">
-        <v>255</v>
+      <c r="I106" s="8" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="107" spans="6:9" ht="16.5" customHeight="1">
-      <c r="I107" s="8" t="s">
-        <v>268</v>
+      <c r="F107" s="10" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="108" spans="6:9" ht="16.5" customHeight="1">
-      <c r="F108" s="10" t="s">
-        <v>147</v>
+      <c r="G108" s="8" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="109" spans="6:9" ht="16.5" customHeight="1">
-      <c r="G109" s="8" t="s">
-        <v>204</v>
+      <c r="G109" s="10" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="110" spans="6:9" ht="16.5" customHeight="1">
-      <c r="G110" s="10" t="s">
-        <v>205</v>
+      <c r="H110" s="8" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="111" spans="6:9" ht="16.5" customHeight="1">
       <c r="H111" s="8" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="112" spans="6:9" ht="16.5" customHeight="1">
-      <c r="H112" s="8" t="s">
-        <v>257</v>
+      <c r="F112" s="8" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="113" spans="6:8" ht="16.5" customHeight="1">
-      <c r="F113" s="8" t="s">
-        <v>148</v>
+      <c r="G113" s="13" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="114" spans="6:8" ht="16.5" customHeight="1">
-      <c r="G114" s="13" t="s">
-        <v>160</v>
+      <c r="F114" s="8" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="115" spans="6:8" ht="16.5" customHeight="1">
-      <c r="F115" s="8" t="s">
-        <v>149</v>
+      <c r="G115" s="8" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="116" spans="6:8" ht="16.5" customHeight="1">
-      <c r="G116" s="8" t="s">
-        <v>206</v>
+      <c r="G116" s="13" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="117" spans="6:8" ht="16.5" customHeight="1">
-      <c r="G117" s="13" t="s">
-        <v>160</v>
+      <c r="F117" s="8" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="118" spans="6:8" ht="16.5" customHeight="1">
       <c r="F118" s="8" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="6:8" ht="16.5" customHeight="1">
       <c r="F119" s="8" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120" spans="6:8" ht="16.5" customHeight="1">
-      <c r="F120" s="8" t="s">
-        <v>152</v>
+      <c r="F120" s="10" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="121" spans="6:8" ht="16.5" customHeight="1">
-      <c r="F121" s="10" t="s">
-        <v>153</v>
+      <c r="G121" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="122" spans="6:8" ht="16.5" customHeight="1">
-      <c r="G122" s="13" t="s">
-        <v>60</v>
+      <c r="G122" s="8" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="123" spans="6:8" ht="16.5" customHeight="1">
       <c r="G123" s="8" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="124" spans="6:8" ht="16.5" customHeight="1">
-      <c r="G124" s="8" t="s">
-        <v>208</v>
+      <c r="H124" s="8" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="125" spans="6:8" ht="16.5" customHeight="1">
-      <c r="H125" s="8" t="s">
-        <v>258</v>
+      <c r="G125" s="8" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="126" spans="6:8" ht="16.5" customHeight="1">
-      <c r="G126" s="8" t="s">
-        <v>209</v>
+      <c r="H126" s="8" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="127" spans="6:8" ht="16.5" customHeight="1">
-      <c r="H127" s="8" t="s">
-        <v>259</v>
+      <c r="G127" s="8" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="128" spans="6:8" ht="16.5" customHeight="1">
-      <c r="G128" s="8" t="s">
-        <v>210</v>
+      <c r="H128" s="8" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="129" spans="4:13" ht="16.5" customHeight="1">
-      <c r="H129" s="8" t="s">
-        <v>260</v>
+      <c r="D129" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M129" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="4:13" ht="16.5" customHeight="1">
-      <c r="D130" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="M130" s="1">
+      <c r="E130" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="131" spans="4:13" ht="16.5" customHeight="1">
+      <c r="E131" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="132" spans="4:13" ht="16.5" customHeight="1">
+      <c r="E132" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M132" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="4:13" ht="16.5" customHeight="1">
-      <c r="E131" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="132" spans="4:13" ht="16.5" customHeight="1">
-      <c r="E132" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
     <row r="133" spans="4:13" ht="16.5" customHeight="1">
-      <c r="E133" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="M133" s="1">
-        <v>5</v>
+      <c r="F133" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="134" spans="4:13" ht="16.5" customHeight="1">
-      <c r="F134" s="13" t="s">
-        <v>60</v>
+      <c r="F134" s="8" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="135" spans="4:13" ht="16.5" customHeight="1">
       <c r="F135" s="8" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="136" spans="4:13" ht="16.5" customHeight="1">
-      <c r="F136" s="8" t="s">
-        <v>155</v>
+      <c r="G136" s="8" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="137" spans="4:13" ht="16.5" customHeight="1">
-      <c r="G137" s="8" t="s">
-        <v>211</v>
+      <c r="G137" s="10" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="138" spans="4:13" ht="16.5" customHeight="1">
-      <c r="G138" s="10" t="s">
-        <v>212</v>
+      <c r="G138" s="8" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="139" spans="4:13" ht="16.5" customHeight="1">
       <c r="G139" s="8" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="140" spans="4:13" ht="16.5" customHeight="1">
       <c r="G140" s="8" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="141" spans="4:13" ht="16.5" customHeight="1">
       <c r="G141" s="8" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="142" spans="4:13" ht="16.5" customHeight="1">
-      <c r="G142" s="8" t="s">
-        <v>216</v>
+      <c r="F142" s="8" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="143" spans="4:13" ht="16.5" customHeight="1">
-      <c r="F143" s="8" t="s">
-        <v>156</v>
+      <c r="E143" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M143" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="4:13" ht="16.5" customHeight="1">
-      <c r="E144" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="M144" s="1">
-        <v>5</v>
+      <c r="F144" s="8" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="145" spans="5:7" ht="16.5" customHeight="1">
-      <c r="F145" s="8" t="s">
-        <v>157</v>
+      <c r="G145" s="8" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="146" spans="5:7" ht="16.5" customHeight="1">
-      <c r="G146" s="8" t="s">
-        <v>217</v>
+      <c r="F146" s="8" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="147" spans="5:7" ht="16.5" customHeight="1">
-      <c r="F147" s="8" t="s">
-        <v>158</v>
+      <c r="G147" s="8" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="148" spans="5:7" ht="16.5" customHeight="1">
       <c r="G148" s="8" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="149" spans="5:7" ht="16.5" customHeight="1">
       <c r="G149" s="8" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="150" spans="5:7" ht="16.5" customHeight="1">
       <c r="G150" s="8" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="151" spans="5:7" ht="16.5" customHeight="1">
-      <c r="G151" s="8" t="s">
-        <v>221</v>
+      <c r="F151" s="8" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="152" spans="5:7" ht="16.5" customHeight="1">
-      <c r="F152" s="8" t="s">
-        <v>159</v>
+      <c r="G152" s="8" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="153" spans="5:7" ht="16.5" customHeight="1">
       <c r="G153" s="8" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="154" spans="5:7" ht="16.5" customHeight="1">
       <c r="G154" s="8" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="155" spans="5:7" ht="16.5" customHeight="1">
-      <c r="G155" s="8" t="s">
-        <v>224</v>
+      <c r="E155" s="10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="156" spans="5:7" ht="16.5" customHeight="1">
-      <c r="E156" s="10" t="s">
-        <v>101</v>
+      <c r="F156" s="13" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="157" spans="5:7" ht="16.5" customHeight="1">
-      <c r="F157" s="13" t="s">
-        <v>160</v>
+      <c r="F157" s="8" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="158" spans="5:7" ht="16.5" customHeight="1">
-      <c r="F158" s="8" t="s">
-        <v>161</v>
+      <c r="G158" s="8" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="159" spans="5:7" ht="16.5" customHeight="1">
       <c r="G159" s="8" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="160" spans="5:7" ht="16.5" customHeight="1">
       <c r="G160" s="8" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="161" spans="4:13" ht="16.5" customHeight="1">
       <c r="G161" s="8" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="162" spans="4:13" ht="16.5" customHeight="1">
-      <c r="G162" s="8" t="s">
-        <v>228</v>
+      <c r="H162" s="8" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="163" spans="4:13" ht="16.5" customHeight="1">
       <c r="H163" s="8" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="164" spans="4:13" ht="16.5" customHeight="1">
       <c r="H164" s="8" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="165" spans="4:13" ht="16.5" customHeight="1">
-      <c r="H165" s="8" t="s">
-        <v>263</v>
+      <c r="F165" s="8" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="166" spans="4:13" ht="16.5" customHeight="1">
-      <c r="F166" s="8" t="s">
-        <v>162</v>
+      <c r="G166" s="8" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="167" spans="4:13" ht="16.5" customHeight="1">
-      <c r="G167" s="8" t="s">
-        <v>229</v>
+      <c r="F167" s="8" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="168" spans="4:13" ht="16.5" customHeight="1">
-      <c r="F168" s="8" t="s">
-        <v>163</v>
+      <c r="D168" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="M168" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="4:13" ht="16.5" customHeight="1">
-      <c r="D169" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="M169" s="1">
-        <v>4</v>
+      <c r="E169" s="13" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="170" spans="4:13" ht="16.5" customHeight="1">
-      <c r="E170" s="13" t="s">
-        <v>102</v>
+      <c r="E170" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="171" spans="4:13" ht="16.5" customHeight="1">
-      <c r="E171" s="8" t="s">
-        <v>103</v>
+      <c r="E171" s="12" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="172" spans="4:13" ht="16.5" customHeight="1">
-      <c r="E172" s="12" t="s">
-        <v>104</v>
+      <c r="E172" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M172" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="4:13" ht="16.5" customHeight="1">
-      <c r="E173" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="M173" s="1">
-        <v>5</v>
+      <c r="F173" s="13" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="174" spans="4:13" ht="16.5" customHeight="1">
-      <c r="F174" s="13" t="s">
-        <v>164</v>
+      <c r="F174" s="12" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="175" spans="4:13" ht="16.5" customHeight="1">
-      <c r="F175" s="12" t="s">
-        <v>98</v>
+      <c r="F175" s="8" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="176" spans="4:13" ht="16.5" customHeight="1">
       <c r="F176" s="8" t="s">
-        <v>165</v>
+        <v>151</v>
+      </c>
+      <c r="M176" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="177" spans="6:16" ht="16.5" customHeight="1">
       <c r="F177" s="8" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="M177" s="1">
         <v>6</v>
@@ -4695,683 +4594,675 @@
     </row>
     <row r="178" spans="6:16" ht="16.5" customHeight="1">
       <c r="F178" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="M178" s="1">
-        <v>6</v>
+        <v>153</v>
       </c>
     </row>
     <row r="179" spans="6:16" ht="16.5" customHeight="1">
-      <c r="F179" s="8" t="s">
-        <v>168</v>
+      <c r="G179" s="8" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="180" spans="6:16" ht="16.5" customHeight="1">
-      <c r="G180" s="8" t="s">
-        <v>230</v>
+      <c r="G180" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="P180" s="17" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="181" spans="6:16" ht="16.5" customHeight="1">
-      <c r="G181" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="P181" s="17" t="s">
-        <v>294</v>
+      <c r="H181" s="8" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="182" spans="6:16" ht="16.5" customHeight="1">
-      <c r="H182" s="8" t="s">
-        <v>264</v>
+      <c r="I182" s="8" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="183" spans="6:16" ht="16.5" customHeight="1">
       <c r="I183" s="8" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
     </row>
     <row r="184" spans="6:16" ht="16.5" customHeight="1">
       <c r="I184" s="8" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
     </row>
     <row r="185" spans="6:16" ht="16.5" customHeight="1">
       <c r="I185" s="8" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
     </row>
     <row r="186" spans="6:16" ht="16.5" customHeight="1">
-      <c r="I186" s="8" t="s">
-        <v>272</v>
+      <c r="H186" s="8" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="187" spans="6:16" ht="16.5" customHeight="1">
-      <c r="H187" s="8" t="s">
-        <v>265</v>
+      <c r="I187" s="8" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="188" spans="6:16" ht="16.5" customHeight="1">
       <c r="I188" s="8" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
     </row>
     <row r="189" spans="6:16" ht="16.5" customHeight="1">
       <c r="I189" s="8" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
     </row>
     <row r="190" spans="6:16" ht="16.5" customHeight="1">
       <c r="I190" s="8" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
     </row>
     <row r="191" spans="6:16" ht="16.5" customHeight="1">
       <c r="I191" s="8" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
     </row>
     <row r="192" spans="6:16" ht="16.5" customHeight="1">
-      <c r="I192" s="8" t="s">
-        <v>277</v>
+      <c r="H192" s="8" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="193" spans="5:16" ht="16.5" customHeight="1">
-      <c r="H193" s="8" t="s">
-        <v>266</v>
+      <c r="I193" s="8" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="194" spans="5:16" ht="16.5" customHeight="1">
       <c r="I194" s="8" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
     </row>
     <row r="195" spans="5:16" ht="16.5" customHeight="1">
       <c r="I195" s="8" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
     </row>
     <row r="196" spans="5:16" ht="16.5" customHeight="1">
       <c r="I196" s="8" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
     </row>
     <row r="197" spans="5:16" ht="16.5" customHeight="1">
       <c r="I197" s="8" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
     </row>
     <row r="198" spans="5:16" ht="16.5" customHeight="1">
-      <c r="I198" s="8" t="s">
-        <v>282</v>
+      <c r="G198" s="16" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="199" spans="5:16" ht="16.5" customHeight="1">
-      <c r="G199" s="16" t="s">
-        <v>232</v>
+      <c r="G199" s="8" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="200" spans="5:16" ht="16.5" customHeight="1">
-      <c r="G200" s="8" t="s">
-        <v>233</v>
+      <c r="H200" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="P200" s="17" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="201" spans="5:16" ht="16.5" customHeight="1">
-      <c r="H201" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="P201" s="17" t="s">
-        <v>295</v>
+      <c r="E201" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="202" spans="5:16" ht="16.5" customHeight="1">
-      <c r="E202" s="8" t="s">
-        <v>106</v>
+      <c r="F202" s="13" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="203" spans="5:16" ht="16.5" customHeight="1">
-      <c r="F203" s="13" t="s">
-        <v>169</v>
+      <c r="F203" s="12" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="204" spans="5:16" ht="16.5" customHeight="1">
-      <c r="F204" s="12" t="s">
-        <v>170</v>
+      <c r="F204" s="8" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="205" spans="5:16" ht="16.5" customHeight="1">
-      <c r="F205" s="8" t="s">
-        <v>171</v>
+      <c r="G205" s="8" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="206" spans="5:16" ht="16.5" customHeight="1">
       <c r="G206" s="8" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
     </row>
     <row r="207" spans="5:16" ht="16.5" customHeight="1">
       <c r="G207" s="8" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="208" spans="5:16" ht="16.5" customHeight="1">
       <c r="G208" s="8" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
     </row>
     <row r="209" spans="3:13" ht="16.5" customHeight="1">
       <c r="G209" s="8" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="210" spans="3:13" ht="16.5" customHeight="1">
-      <c r="G210" s="8" t="s">
-        <v>238</v>
+      <c r="C210" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M210" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="211" spans="3:13" ht="16.5" customHeight="1">
-      <c r="C211" s="11" t="s">
+      <c r="D211" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="212" spans="3:13" ht="16.5" customHeight="1">
+      <c r="C212" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M212" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="3:13" ht="16.5" customHeight="1">
+      <c r="D213" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="M211" s="1">
+    </row>
+    <row r="214" spans="3:13" ht="16.5" customHeight="1">
+      <c r="C214" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M214" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="3:13" ht="16.5" customHeight="1">
-      <c r="D212" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="213" spans="3:13" ht="16.5" customHeight="1">
-      <c r="C213" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="M213" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="214" spans="3:13" ht="16.5" customHeight="1">
-      <c r="D214" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
     <row r="215" spans="3:13" ht="16.5" customHeight="1">
-      <c r="C215" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M215" s="1">
-        <v>4</v>
+      <c r="D215" s="13" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="216" spans="3:13" ht="16.5" customHeight="1">
-      <c r="D216" s="13" t="s">
-        <v>67</v>
+      <c r="D216" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M216" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="217" spans="3:13" ht="16.5" customHeight="1">
-      <c r="D217" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="M217" s="1">
-        <v>5</v>
+      <c r="E217" s="12" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="218" spans="3:13" ht="16.5" customHeight="1">
-      <c r="E218" s="12" t="s">
-        <v>107</v>
+      <c r="E218" s="8" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="219" spans="3:13" ht="16.5" customHeight="1">
-      <c r="E219" s="8" t="s">
-        <v>108</v>
+      <c r="D219" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="220" spans="3:13" ht="16.5" customHeight="1">
-      <c r="D220" s="8" t="s">
-        <v>63</v>
+      <c r="E220" s="12" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="221" spans="3:13" ht="16.5" customHeight="1">
-      <c r="E221" s="12" t="s">
+      <c r="D221" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="222" spans="3:13" ht="16.5" customHeight="1">
+      <c r="E222" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="223" spans="3:13" ht="16.5" customHeight="1">
+      <c r="E223" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="222" spans="3:13" ht="16.5" customHeight="1">
-      <c r="D222" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="223" spans="3:13" ht="16.5" customHeight="1">
-      <c r="E223" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
     <row r="224" spans="3:13" ht="16.5" customHeight="1">
-      <c r="E224" s="8" t="s">
-        <v>109</v>
+      <c r="D224" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="225" spans="4:16" ht="16.5" customHeight="1">
-      <c r="D225" s="8" t="s">
-        <v>70</v>
+      <c r="E225" s="12" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="226" spans="4:16" ht="16.5" customHeight="1">
-      <c r="E226" s="12" t="s">
-        <v>110</v>
+      <c r="D226" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="227" spans="4:16" ht="16.5" customHeight="1">
-      <c r="D227" s="8" t="s">
-        <v>71</v>
+      <c r="E227" s="12" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="228" spans="4:16" ht="16.5" customHeight="1">
-      <c r="E228" s="12" t="s">
-        <v>110</v>
+      <c r="E228" s="8" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="229" spans="4:16" ht="16.5" customHeight="1">
       <c r="E229" s="8" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="230" spans="4:16" ht="16.5" customHeight="1">
       <c r="E230" s="8" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="231" spans="4:16" ht="16.5" customHeight="1">
       <c r="E231" s="8" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="232" spans="4:16" ht="16.5" customHeight="1">
-      <c r="E232" s="8" t="s">
-        <v>114</v>
+      <c r="D232" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="233" spans="4:16" ht="16.5" customHeight="1">
-      <c r="D233" s="8" t="s">
-        <v>72</v>
+      <c r="E233" s="13" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="234" spans="4:16" ht="16.5" customHeight="1">
-      <c r="E234" s="13" t="s">
-        <v>115</v>
+      <c r="E234" s="12" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="235" spans="4:16" ht="16.5" customHeight="1">
-      <c r="E235" s="12" t="s">
-        <v>116</v>
+      <c r="E235" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="236" spans="4:16" ht="16.5" customHeight="1">
       <c r="E236" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="237" spans="4:16" ht="16.5" customHeight="1">
+      <c r="D237" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="238" spans="4:16" ht="16.5" customHeight="1">
+      <c r="E238" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="239" spans="4:16" ht="16.5" customHeight="1">
+      <c r="E239" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="P239" s="17" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="240" spans="4:16" ht="16.5" customHeight="1">
+      <c r="F240" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="241" spans="4:16" ht="16.5" customHeight="1">
+      <c r="F241" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="242" spans="4:16" ht="16.5" customHeight="1">
+      <c r="F242" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="243" spans="4:16" ht="16.5" customHeight="1">
+      <c r="F243" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="244" spans="4:16" ht="16.5" customHeight="1">
+      <c r="E244" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="P244" s="17" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="245" spans="4:16" ht="16.5" customHeight="1">
+      <c r="F245" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="246" spans="4:16" ht="16.5" customHeight="1">
+      <c r="G246" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="247" spans="4:16" ht="16.5" customHeight="1">
+      <c r="G247" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="248" spans="4:16" ht="16.5" customHeight="1">
+      <c r="G248" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="249" spans="4:16" ht="16.5" customHeight="1">
+      <c r="G249" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="250" spans="4:16" ht="16.5" customHeight="1">
+      <c r="G250" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="251" spans="4:16" ht="16.5" customHeight="1">
+      <c r="G251" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="252" spans="4:16" ht="16.5" customHeight="1">
+      <c r="G252" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="253" spans="4:16" ht="16.5" customHeight="1">
+      <c r="G253" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="254" spans="4:16" ht="16.5" customHeight="1">
+      <c r="E254" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="P254" s="17" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="255" spans="4:16" ht="16.5" customHeight="1">
+      <c r="F255" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="256" spans="4:16" ht="16.5" customHeight="1">
+      <c r="D256" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="M256" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="5:13" ht="16.5" customHeight="1">
+      <c r="E257" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="258" spans="5:13" ht="16.5" customHeight="1">
+      <c r="E258" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="259" spans="5:13" ht="16.5" customHeight="1">
+      <c r="E259" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="260" spans="5:13" ht="16.5" customHeight="1">
+      <c r="E260" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="261" spans="5:13" ht="16.5" customHeight="1">
+      <c r="E261" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="M261" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="262" spans="5:13" ht="16.5" customHeight="1">
+      <c r="E262" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="263" spans="5:13" ht="16.5" customHeight="1">
+      <c r="E263" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="M263" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="264" spans="5:13" ht="16.5" customHeight="1">
+      <c r="F264" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="265" spans="5:13" ht="16.5" customHeight="1">
+      <c r="F265" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="266" spans="5:13" ht="16.5" customHeight="1">
+      <c r="E266" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="M266" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="267" spans="5:13" ht="16.5" customHeight="1">
+      <c r="F267" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="268" spans="5:13" ht="16.5" customHeight="1">
+      <c r="E268" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="M268" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="269" spans="5:13" ht="16.5" customHeight="1">
+      <c r="F269" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="270" spans="5:13" ht="16.5" customHeight="1">
+      <c r="E270" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="M270" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="271" spans="5:13" ht="16.5" customHeight="1">
+      <c r="F271" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="272" spans="5:13" ht="16.5" customHeight="1">
+      <c r="E272" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="M272" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="273" spans="2:16" ht="16.5" customHeight="1">
+      <c r="F273" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="274" spans="2:16" ht="16.5" customHeight="1">
+      <c r="E274" s="8" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="237" spans="4:16" ht="16.5" customHeight="1">
-      <c r="E237" s="8" t="s">
+      <c r="M274" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="275" spans="2:16" ht="16.5" customHeight="1">
+      <c r="F275" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="276" spans="2:16" ht="16.5" customHeight="1">
+      <c r="E276" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="277" spans="2:16" ht="16.5" customHeight="1">
+      <c r="F277" s="16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="278" spans="2:16" ht="16.5" customHeight="1">
+      <c r="E278" s="7" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="238" spans="4:16" ht="16.5" customHeight="1">
-      <c r="D238" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="239" spans="4:16" ht="16.5" customHeight="1">
-      <c r="E239" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="240" spans="4:16" ht="16.5" customHeight="1">
-      <c r="E240" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="P240" s="17" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="241" spans="5:16" ht="16.5" customHeight="1">
-      <c r="F241" s="8" t="s">
+      <c r="M278" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="2:16" ht="16.5" customHeight="1">
+      <c r="F279" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="280" spans="2:16" ht="16.5" customHeight="1">
+      <c r="F280" s="8" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="242" spans="5:16" ht="16.5" customHeight="1">
-      <c r="F242" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="243" spans="5:16" ht="16.5" customHeight="1">
-      <c r="F243" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="244" spans="5:16" ht="16.5" customHeight="1">
-      <c r="F244" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="245" spans="5:16" ht="16.5" customHeight="1">
-      <c r="E245" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="P245" s="17" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="246" spans="5:16" ht="16.5" customHeight="1">
-      <c r="F246" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="247" spans="5:16" ht="16.5" customHeight="1">
-      <c r="G247" s="8" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="248" spans="5:16" ht="16.5" customHeight="1">
-      <c r="G248" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="249" spans="5:16" ht="16.5" customHeight="1">
-      <c r="G249" s="8" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="250" spans="5:16" ht="16.5" customHeight="1">
-      <c r="G250" s="8" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="251" spans="5:16" ht="16.5" customHeight="1">
-      <c r="G251" s="8" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="252" spans="5:16" ht="16.5" customHeight="1">
-      <c r="G252" s="8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="253" spans="5:16" ht="16.5" customHeight="1">
-      <c r="G253" s="8" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="254" spans="5:16" ht="16.5" customHeight="1">
-      <c r="G254" s="8" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="255" spans="5:16" ht="16.5" customHeight="1">
-      <c r="E255" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="P255" s="17" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="256" spans="5:16" ht="16.5" customHeight="1">
-      <c r="F256" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="257" spans="4:13" ht="16.5" customHeight="1">
-      <c r="D257" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="M257" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="258" spans="4:13" ht="16.5" customHeight="1">
-      <c r="E258" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="259" spans="4:13" ht="16.5" customHeight="1">
-      <c r="E259" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="260" spans="4:13" ht="16.5" customHeight="1">
-      <c r="E260" s="16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="261" spans="4:13" ht="16.5" customHeight="1">
-      <c r="E261" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="262" spans="4:13" ht="16.5" customHeight="1">
-      <c r="E262" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="M262" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="263" spans="4:13" ht="16.5" customHeight="1">
-      <c r="E263" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="264" spans="4:13" ht="16.5" customHeight="1">
-      <c r="E264" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="M264" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="265" spans="4:13" ht="16.5" customHeight="1">
-      <c r="F265" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="266" spans="4:13" ht="16.5" customHeight="1">
-      <c r="F266" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="267" spans="4:13" ht="16.5" customHeight="1">
-      <c r="E267" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="M267" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="268" spans="4:13" ht="16.5" customHeight="1">
-      <c r="F268" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="269" spans="4:13" ht="16.5" customHeight="1">
-      <c r="E269" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="M269" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="270" spans="4:13" ht="16.5" customHeight="1">
-      <c r="F270" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="271" spans="4:13" ht="16.5" customHeight="1">
-      <c r="E271" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="M271" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="272" spans="4:13" ht="16.5" customHeight="1">
-      <c r="F272" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="273" spans="2:16" ht="16.5" customHeight="1">
-      <c r="E273" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="M273" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="274" spans="2:16" ht="16.5" customHeight="1">
-      <c r="F274" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="275" spans="2:16" ht="16.5" customHeight="1">
-      <c r="E275" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="M275" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="276" spans="2:16" ht="16.5" customHeight="1">
-      <c r="F276" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="277" spans="2:16" ht="16.5" customHeight="1">
-      <c r="E277" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="278" spans="2:16" ht="16.5" customHeight="1">
-      <c r="F278" s="16" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="279" spans="2:16" ht="16.5" customHeight="1">
-      <c r="E279" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="M279" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="280" spans="2:16" ht="16.5" customHeight="1">
-      <c r="F280" s="13" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="281" spans="2:16" ht="16.5" customHeight="1">
       <c r="F281" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="282" spans="2:16" ht="16.5" customHeight="1">
       <c r="F282" s="8" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="283" spans="2:16" ht="16.5" customHeight="1">
       <c r="F283" s="8" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="284" spans="2:16" ht="16.5" customHeight="1">
       <c r="F284" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="285" spans="2:16" ht="16.5" customHeight="1">
-      <c r="F285" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="286" spans="2:16" ht="19.5" customHeight="1">
-      <c r="B286" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P286" s="17" t="s">
-        <v>299</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="285" spans="2:16" ht="19.5" customHeight="1">
+      <c r="B285" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P285" s="17" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="2:16" ht="16.5" customHeight="1">
+      <c r="C286" s="8" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="2:16" ht="16.5" customHeight="1">
-      <c r="C287" s="8" t="s">
-        <v>15</v>
+      <c r="D287" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P287" s="17" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="288" spans="2:16" ht="16.5" customHeight="1">
-      <c r="D288" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P288" s="17" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="289" spans="4:16" ht="16.5" customHeight="1">
-      <c r="D289" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="290" spans="4:16" ht="16.5" customHeight="1">
+      <c r="D288" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="289" spans="5:16" ht="16.5" customHeight="1">
+      <c r="E289" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P289" s="17" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="290" spans="5:16" ht="16.5" customHeight="1">
       <c r="E290" s="8" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="P290" s="17" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="291" spans="4:16" ht="16.5" customHeight="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="291" spans="5:16" ht="16.5" customHeight="1">
       <c r="E291" s="8" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="P291" s="17" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="292" spans="4:16" ht="16.5" customHeight="1">
-      <c r="E292" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="P292" s="17" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18"/>
+  <phoneticPr fontId="17"/>
   <hyperlinks>
-    <hyperlink ref="N23" location="'Sec01-01-01_「中小企業向けサイバーセキュリティ対策'!D61" display="「サイバーセキュリティ経営ガイドライン」Ver2.0の重要10項目の分類及び内容の改訂に伴う記述の加筆訂正" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="N24" location="'Sec01-01-01_「中小企業向けサイバーセキュリティ対策'!D83" display="「中小企業の情報セキュリティ対策ガイドライン第3版」のリスク分析の位置付けの変更" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="N27" location="'Sec01-01-01_「中小企業向けサイバーセキュリティ対策'!D87" display="ITの最新トレンド対応" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="N61" location="'Sec01-01-01_「中小企業向けサイバーセキュリティ対策'!C23" display="「サイバーセキュリティ経営ガイドライン2.0対応" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="N83" location="'Sec01-01-01_「中小企業向けサイバーセキュリティ対策'!C24" display="中小企業の情報セキュリティ対策ガイドライン第3版対応" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="N87" location="'Sec01-01-01_「中小企業向けサイバーセキュリティ対策'!C27" display="ITの最新トレンド対応" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="P2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="P11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="P13" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="P14" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="P15" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="P46" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="P58" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="P59" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="P62" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="P68" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="P181" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="P201" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="P240" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="P245" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="P255" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="P286" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="P288" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="P290" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="P291" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="P292" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="N22" location="'Sec01-01-01_「中小企業向けサイバーセキュリティ対策'!D60" display="「サイバーセキュリティ経営ガイドライン」Ver2.0の重要10項目の分類及び内容の改訂に伴う記述の加筆訂正" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="N23" location="'Sec01-01-01_「中小企業向けサイバーセキュリティ対策'!D82" display="「中小企業の情報セキュリティ対策ガイドライン第3版」のリスク分析の位置付けの変更" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="N26" location="'Sec01-01-01_「中小企業向けサイバーセキュリティ対策'!D86" display="ITの最新トレンド対応" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="N60" location="'Sec01-01-01_「中小企業向けサイバーセキュリティ対策'!C22" display="「サイバーセキュリティ経営ガイドライン2.0対応" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="N82" location="'Sec01-01-01_「中小企業向けサイバーセキュリティ対策'!C23" display="中小企業の情報セキュリティ対策ガイドライン第3版対応" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="N86" location="'Sec01-01-01_「中小企業向けサイバーセキュリティ対策'!C26" display="ITの最新トレンド対応" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="P1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="P10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="P12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="P13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="P14" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="P45" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="P57" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="P58" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="P61" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="P67" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="P180" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="P200" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="P239" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="P244" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="P254" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="P285" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="P287" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="P289" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="P290" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="P291" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="78" fitToWidth="2" fitToHeight="0" orientation="landscape" r:id="rId21"/>
+  <pageSetup scale="76" fitToWidth="2" fitToHeight="0" orientation="landscape" r:id="rId21"/>
   <drawing r:id="rId22"/>
 </worksheet>
 </file>